--- a/Docs/docs_tecnicos/Burndown codenine.xlsx
+++ b/Docs/docs_tecnicos/Burndown codenine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaci\OneDrive\Área de Trabalho\portfolio_digital_dsm\API-2024.1\Docs\docs_tecnicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F88EA-C20A-42AE-A570-DABBB5D91A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C4AF5-3F31-41A9-8AC9-9D1AE5893CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Data de início:</t>
   </si>
@@ -127,6 +127,78 @@
   <si>
     <t>Davi</t>
   </si>
+  <si>
+    <t>Criação da barra de navegação</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Banco de Dados Físico</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de cadastro do cliente</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de cadastro do funcionário</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de login do cliente</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de login do funcionário</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de edição de dados do cliente</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de edição de dados do funcionário</t>
+  </si>
+  <si>
+    <t>Sistema de Cadastro</t>
+  </si>
+  <si>
+    <t>Sistema de Login</t>
+  </si>
+  <si>
+    <t>Davi e Joyce</t>
+  </si>
+  <si>
+    <t>Sistema de edição de dados</t>
+  </si>
+  <si>
+    <t>Davi, Joyce e Yuri</t>
+  </si>
+  <si>
+    <t>Sistema de visualização de usuários</t>
+  </si>
+  <si>
+    <t>Yuri e Joyce</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de FAQ</t>
+  </si>
+  <si>
+    <t>Estudo de TypeOrm</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Documentação do projeto no Git</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +245,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -333,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,12 +479,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -410,14 +503,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +904,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1161,64 +1249,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>109.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>74.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>63.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>51.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1325,64 +1413,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3055,8 +3143,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3076,7 +3164,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,7 +3570,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3503,7 +3591,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3552,30 +3640,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -3591,15 +3679,15 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="10">
         <v>45380</v>
       </c>
@@ -3616,15 +3704,15 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="10">
         <v>45376</v>
       </c>
@@ -3641,15 +3729,15 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="13">
         <v>45381</v>
       </c>
@@ -3665,15 +3753,15 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="10">
         <v>45384</v>
       </c>
@@ -3689,15 +3777,15 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="10">
         <v>45378</v>
       </c>
@@ -3713,15 +3801,15 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="14">
         <v>45385</v>
       </c>
@@ -3737,15 +3825,15 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="14">
         <v>45388</v>
       </c>
@@ -3761,15 +3849,15 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
       <c r="H36" s="14">
         <v>45388</v>
       </c>
@@ -5187,8 +5275,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5208,7 +5296,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5249,7 +5337,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(J29:J1007)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D25" si="0">SUMIF($K$29:$K$1007,B5,$J$29:$J$1007)</f>
@@ -5257,7 +5345,7 @@
       </c>
       <c r="E5" s="7">
         <f>C5-D5</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5270,7 +5358,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
-        <v>0</v>
+        <v>109.25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -5278,7 +5366,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:E25" ca="1" si="3">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5291,15 +5379,15 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5312,15 +5400,15 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>97.75</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5333,15 +5421,15 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5354,7 +5442,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.25</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -5362,7 +5450,7 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5375,7 +5463,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -5383,7 +5471,7 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,15 +5484,15 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5417,7 +5505,7 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -5425,7 +5513,7 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,7 +5526,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63.25</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -5446,7 +5534,7 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5459,7 +5547,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -5467,7 +5555,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5480,15 +5568,15 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51.75</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,15 +5589,15 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5522,15 +5610,15 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40.25</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5543,15 +5631,15 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,7 +5652,7 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -5572,7 +5660,7 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5585,15 +5673,15 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5606,15 +5694,15 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5627,15 +5715,15 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,15 +5736,15 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5673,7 +5761,7 @@
       </c>
       <c r="D25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -5684,30 +5772,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -5723,239 +5811,399 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="12"/>
+      <c r="A29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="10">
+        <v>45397</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="16">
+        <v>10</v>
+      </c>
+      <c r="K29" s="12">
+        <v>45401</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="12"/>
+      <c r="A30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="10">
+        <v>45398</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+      <c r="K30" s="12">
+        <v>45400</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="12"/>
+      <c r="A31" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="13">
+        <v>45405</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="18">
+        <v>4</v>
+      </c>
+      <c r="K31" s="12">
+        <v>45413</v>
+      </c>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="A32" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="10">
+        <v>45406</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="11">
+        <v>5</v>
+      </c>
+      <c r="K32" s="12">
+        <v>45414</v>
+      </c>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
+      <c r="A33" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="10">
+        <v>45401</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="11">
+        <v>4</v>
+      </c>
+      <c r="K33" s="12">
+        <v>45408</v>
+      </c>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
+      <c r="A34" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="14">
+        <v>45402</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="12">
+        <v>45409</v>
+      </c>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="12"/>
+      <c r="A35" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="14">
+        <v>45402</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="15">
+        <v>5</v>
+      </c>
+      <c r="K35" s="12">
+        <v>45410</v>
+      </c>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
+      <c r="A36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="14">
+        <v>45402</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="7">
+        <v>6</v>
+      </c>
+      <c r="K36" s="12">
+        <v>45410</v>
+      </c>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
+      <c r="A37" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="8">
+        <v>45399</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="7">
+        <v>13</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45404</v>
+      </c>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
+      <c r="A38" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="8">
+        <v>45410</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="7">
+        <v>18</v>
+      </c>
+      <c r="K38" s="8">
+        <v>45415</v>
+      </c>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
+      <c r="A39" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="8">
+        <v>45411</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="7">
+        <v>15</v>
+      </c>
+      <c r="K39" s="8">
+        <v>45416</v>
+      </c>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
+      <c r="A40" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="8">
+        <v>45411</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="7">
+        <v>9</v>
+      </c>
+      <c r="K40" s="8">
+        <v>45415</v>
+      </c>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="19"/>
+      <c r="A41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="19">
+        <v>45407</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="21">
+        <v>8</v>
+      </c>
+      <c r="K41" s="19">
+        <v>45411</v>
+      </c>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
+      <c r="A42" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="8">
+        <v>45398</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="7">
+        <v>5</v>
+      </c>
+      <c r="K42" s="8">
+        <v>45401</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
+      <c r="A43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="8">
+        <v>45397</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="7">
+        <v>3</v>
+      </c>
+      <c r="K43" s="8">
+        <v>45399</v>
+      </c>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="8"/>
+      <c r="A44" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="8">
+        <v>45415</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>45417</v>
+      </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -5963,13 +6211,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -5977,13 +6225,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -5991,13 +6239,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -6005,13 +6253,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -6019,13 +6267,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -6033,13 +6281,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -6047,13 +6295,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -6061,13 +6309,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -6075,13 +6323,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -6089,13 +6337,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -6103,13 +6351,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -6117,13 +6365,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -6131,13 +6379,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -6145,13 +6393,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -6159,13 +6407,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -6173,13 +6421,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -6187,13 +6435,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -6201,13 +6449,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -6215,13 +6463,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -6229,13 +6477,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -6243,13 +6491,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -6257,13 +6505,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -9535,7 +9783,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10011,30 +10259,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -10050,13 +10298,13 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="22"/>
       <c r="I29" s="7"/>
       <c r="J29" s="23"/>
@@ -10065,13 +10313,13 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="22"/>
       <c r="I30" s="7"/>
       <c r="J30" s="11"/>
@@ -10080,13 +10328,13 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="22"/>
       <c r="I31" s="7"/>
       <c r="J31" s="11"/>
@@ -10094,13 +10342,13 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="22"/>
       <c r="I32" s="7"/>
       <c r="J32" s="23"/>
@@ -10108,13 +10356,13 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="24"/>
       <c r="I33" s="20"/>
       <c r="J33" s="25"/>
@@ -10122,13 +10370,13 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
       <c r="J34" s="23"/>
@@ -10136,13 +10384,13 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
       <c r="J35" s="30"/>
@@ -10150,13 +10398,13 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="30"/>
@@ -10164,13 +10412,13 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="23"/>
@@ -10178,13 +10426,13 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
       <c r="J38" s="23"/>
@@ -10192,13 +10440,13 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
       <c r="J39" s="30"/>
@@ -10206,13 +10454,13 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
       <c r="J40" s="30"/>
@@ -10220,13 +10468,13 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="30"/>
@@ -10234,13 +10482,13 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="30"/>
@@ -10248,13 +10496,13 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="31"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -10262,13 +10510,13 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="27"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -10276,13 +10524,13 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="22"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -10290,13 +10538,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -10304,13 +10552,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -10318,13 +10566,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -10332,13 +10580,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -10346,13 +10594,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -10360,13 +10608,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -10374,13 +10622,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -10388,13 +10636,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -10402,13 +10650,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -10416,13 +10664,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -10430,13 +10678,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -10444,13 +10692,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -10458,13 +10706,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -10472,13 +10720,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -10486,13 +10734,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10500,13 +10748,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -10514,13 +10762,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -10528,13 +10776,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -10542,13 +10790,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -10556,13 +10804,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -10570,13 +10818,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -10584,13 +10832,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -13862,7 +14110,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14338,30 +14586,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -14377,13 +14625,13 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="22"/>
       <c r="I29" s="7"/>
       <c r="J29" s="16"/>
@@ -14392,13 +14640,13 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="22"/>
       <c r="I30" s="7"/>
       <c r="J30" s="11"/>
@@ -14407,13 +14655,13 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="22"/>
       <c r="I31" s="7"/>
       <c r="J31" s="18"/>
@@ -14421,13 +14669,13 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="22"/>
       <c r="I32" s="7"/>
       <c r="J32" s="11"/>
@@ -14435,13 +14683,13 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="22"/>
       <c r="I33" s="20"/>
       <c r="J33" s="25"/>
@@ -14449,13 +14697,13 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
       <c r="J34" s="30"/>
@@ -14463,13 +14711,13 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
       <c r="J35" s="30"/>
@@ -14477,13 +14725,13 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="30"/>
@@ -14491,13 +14739,13 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
       <c r="J37" s="30"/>
@@ -14505,13 +14753,13 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
       <c r="J38" s="30"/>
@@ -14519,13 +14767,13 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
       <c r="J39" s="30"/>
@@ -14533,13 +14781,13 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
       <c r="J40" s="30"/>
@@ -14547,13 +14795,13 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="30"/>
@@ -14561,13 +14809,13 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="30"/>
@@ -14575,13 +14823,13 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="31"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -14589,13 +14837,13 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="27"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -14603,13 +14851,13 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="22"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -14617,13 +14865,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -14631,13 +14879,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -14645,13 +14893,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -14659,13 +14907,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -14673,13 +14921,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -14687,13 +14935,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -14701,13 +14949,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -14715,13 +14963,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -14729,13 +14977,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -14743,13 +14991,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -14757,13 +15005,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -14771,13 +15019,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -14785,13 +15033,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -14799,13 +15047,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -14813,13 +15061,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -14827,13 +15075,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -14841,13 +15089,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -14855,13 +15103,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -14869,13 +15117,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -14883,13 +15131,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -14897,13 +15145,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -14911,13 +15159,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>

--- a/Docs/docs_tecnicos/Burndown codenine.xlsx
+++ b/Docs/docs_tecnicos/Burndown codenine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaci\OneDrive\Área de Trabalho\portfolio_digital_dsm\API-2024.1\Docs\docs_tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C4AF5-3F31-41A9-8AC9-9D1AE5893CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239B11EC-B29C-4553-89BC-021B95CDCB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$A$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sprint 3'!$A$1:$M$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Data de início:</t>
   </si>
@@ -199,6 +200,81 @@
   <si>
     <t>Documentação do projeto no Git</t>
   </si>
+  <si>
+    <t>Criação de chamados</t>
+  </si>
+  <si>
+    <t>Visualização dos chamados</t>
+  </si>
+  <si>
+    <t>Criação de categorias</t>
+  </si>
+  <si>
+    <t>Júlia, Jonas e Renato</t>
+  </si>
+  <si>
+    <t>Edição de categorias</t>
+  </si>
+  <si>
+    <t>Visualização de categorias</t>
+  </si>
+  <si>
+    <t>Jonas, Renato e Yuri</t>
+  </si>
+  <si>
+    <t>Iniciar atendimento</t>
+  </si>
+  <si>
+    <t>Encerrar atendimento</t>
+  </si>
+  <si>
+    <t>Chat de atendimento</t>
+  </si>
+  <si>
+    <t>Davi, Pedro e Eduardo</t>
+  </si>
+  <si>
+    <t>Visualização de prioridade</t>
+  </si>
+  <si>
+    <t>Visualização de status</t>
+  </si>
+  <si>
+    <t>Davi, Joyce, Eduardo, Pedro e Yuri</t>
+  </si>
+  <si>
+    <t>Davi, Eduardo, Joyce e Pedro</t>
+  </si>
+  <si>
+    <t>Atualização automática da prioridade (SLA)</t>
+  </si>
+  <si>
+    <t>Desativar cliente</t>
+  </si>
+  <si>
+    <t>Joyce, Yuri e Pedro</t>
+  </si>
+  <si>
+    <t>Desativar Funcionário</t>
+  </si>
+  <si>
+    <t>Joyce e Pedro</t>
+  </si>
+  <si>
+    <t>Cadastro de FAQs</t>
+  </si>
+  <si>
+    <t>Jonas e Renato</t>
+  </si>
+  <si>
+    <t>Visualização de FAQs</t>
+  </si>
+  <si>
+    <t>Edição de FAQs</t>
+  </si>
+  <si>
+    <t>Júlia, Joyce, Yuri</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +284,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,6 +333,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -417,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -482,6 +572,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,20 +588,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,67 +1905,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>129.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>122.40000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>115.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>108.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>93.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>86.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>79.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>57.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>50.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>43.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>35.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>28.799999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>21.599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>14.399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7.1999999999999877</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-1.2434497875801753E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,64 +2069,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3164,7 +3260,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45417</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3640,30 +3736,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -3679,15 +3775,15 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="10">
         <v>45380</v>
       </c>
@@ -3704,15 +3800,15 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="10">
         <v>45376</v>
       </c>
@@ -3729,15 +3825,15 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="13">
         <v>45381</v>
       </c>
@@ -3753,15 +3849,15 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="10">
         <v>45384</v>
       </c>
@@ -3777,15 +3873,15 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="10">
         <v>45378</v>
       </c>
@@ -3801,15 +3897,15 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="14">
         <v>45385</v>
       </c>
@@ -3825,15 +3921,15 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="14">
         <v>45388</v>
       </c>
@@ -3849,15 +3945,15 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="14">
         <v>45388</v>
       </c>
@@ -5246,16 +5342,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
@@ -5275,8 +5371,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5296,7 +5392,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45417</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5772,30 +5868,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -5811,15 +5907,15 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="10">
         <v>45397</v>
       </c>
@@ -5836,15 +5932,15 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="10">
         <v>45398</v>
       </c>
@@ -5861,15 +5957,15 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="13">
         <v>45405</v>
       </c>
@@ -5885,15 +5981,15 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="10">
         <v>45406</v>
       </c>
@@ -5909,15 +6005,15 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="10">
         <v>45401</v>
       </c>
@@ -5933,15 +6029,15 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="14">
         <v>45402</v>
       </c>
@@ -5957,15 +6053,15 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="14">
         <v>45402</v>
       </c>
@@ -5981,15 +6077,15 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="14">
         <v>45402</v>
       </c>
@@ -6005,15 +6101,15 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="8">
         <v>45399</v>
       </c>
@@ -6029,15 +6125,15 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="8">
         <v>45410</v>
       </c>
@@ -6053,15 +6149,15 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="8">
         <v>45411</v>
       </c>
@@ -6077,15 +6173,15 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="8">
         <v>45411</v>
       </c>
@@ -6101,15 +6197,15 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="19">
         <v>45407</v>
       </c>
@@ -6125,15 +6221,15 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="8">
         <v>45398</v>
       </c>
@@ -6149,15 +6245,15 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="8">
         <v>45397</v>
       </c>
@@ -6173,15 +6269,15 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="8">
         <v>45415</v>
       </c>
@@ -6197,13 +6293,13 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -6211,13 +6307,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -6225,13 +6321,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6239,13 +6335,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -6253,13 +6349,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -6267,13 +6363,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -6281,13 +6377,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -6295,13 +6391,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -6309,13 +6405,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -6323,13 +6419,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -6337,13 +6433,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -6351,13 +6447,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -6365,13 +6461,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -6379,13 +6475,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -6393,13 +6489,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -6407,13 +6503,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -6421,13 +6517,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -6435,13 +6531,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -6449,13 +6545,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -6463,13 +6559,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -6477,13 +6573,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -6491,13 +6587,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -6505,13 +6601,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -9702,6 +9798,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
@@ -9713,36 +9839,6 @@
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
@@ -9760,10 +9856,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9776,14 +9872,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45417</v>
+        <v>45437</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9820,7 +9916,1939 @@
       </c>
       <c r="B5" s="8">
         <f>B1</f>
-        <v>45417</v>
+        <v>45418</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(J29:J1007)</f>
+        <v>144</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D25" si="0">SUMIF($K$29:$K$1007,B5,$J$29:$J$1007)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>C5-D5</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B25" si="1">B5+1</f>
+        <v>45419</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:E25" ca="1" si="3">IF(B6&lt;=$E$1,E5-D6,)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
+        <v>45420</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="2"/>
+        <v>129.60000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
+        <v>45421</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="2"/>
+        <v>122.40000000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
+        <v>45422</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="2"/>
+        <v>115.20000000000002</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
+        <v>45423</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="2"/>
+        <v>108.00000000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
+        <v>45424</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="2"/>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
+        <v>45425</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="2"/>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>45426</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="2"/>
+        <v>86.4</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>45427</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
+        <v>45428</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>45429</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="2"/>
+        <v>64.8</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>45430</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="2"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>45431</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="2"/>
+        <v>50.399999999999991</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>45432</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="2"/>
+        <v>43.199999999999989</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>45433</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="2"/>
+        <v>35.999999999999986</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>45434</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="2"/>
+        <v>28.799999999999986</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>45435</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="2"/>
+        <v>21.599999999999987</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S22" s="59"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="1"/>
+        <v>45436</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="2"/>
+        <v>14.399999999999988</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
+        <v>45437</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999877</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
+        <v>45438</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.2434497875801753E-14</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="22">
+        <v>45421</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="23">
+        <v>20</v>
+      </c>
+      <c r="K29" s="10">
+        <v>45432</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="22">
+        <v>45429</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="11">
+        <v>15</v>
+      </c>
+      <c r="K30" s="10">
+        <v>45434</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="22">
+        <v>45424</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="11">
+        <v>13</v>
+      </c>
+      <c r="K31" s="10">
+        <v>45432</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="22">
+        <v>45424</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="23">
+        <v>4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>45432</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="24">
+        <v>45429</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="25">
+        <v>9</v>
+      </c>
+      <c r="K33" s="26">
+        <v>45435</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="27">
+        <v>45432</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="23">
+        <v>6</v>
+      </c>
+      <c r="K34" s="29">
+        <v>45433</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="27">
+        <v>45433</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="30">
+        <v>4</v>
+      </c>
+      <c r="K35" s="29">
+        <v>45434</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="27">
+        <v>45421</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="30">
+        <v>15</v>
+      </c>
+      <c r="K36" s="29">
+        <v>45426</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="27">
+        <v>45435</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="23">
+        <v>6</v>
+      </c>
+      <c r="K37" s="29">
+        <v>45406</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="27">
+        <v>45430</v>
+      </c>
+      <c r="I38" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="23">
+        <v>7</v>
+      </c>
+      <c r="K38" s="27">
+        <v>45432</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="27">
+        <v>45432</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="30">
+        <v>10</v>
+      </c>
+      <c r="K39" s="29">
+        <v>45435</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="27">
+        <v>45430</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="30">
+        <v>10</v>
+      </c>
+      <c r="K40" s="29">
+        <v>45436</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="27">
+        <v>45430</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="30">
+        <v>6</v>
+      </c>
+      <c r="K41" s="29">
+        <v>45436</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="27">
+        <v>45432</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="30">
+        <v>5</v>
+      </c>
+      <c r="K42" s="29">
+        <v>45435</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="31">
+        <v>45432</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="28">
+        <v>2</v>
+      </c>
+      <c r="K43" s="29">
+        <v>45435</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="27">
+        <v>45435</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="28">
+        <v>12</v>
+      </c>
+      <c r="K44" s="32">
+        <v>45437</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="26" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>45073</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <f ca="1">TODAY()</f>
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <f>B1</f>
+        <v>45073</v>
       </c>
       <c r="C5" s="7">
         <f>SUM(J29:J1007)</f>
@@ -9841,7 +11869,7 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ref="B6:B25" si="1">B5+1</f>
-        <v>45418</v>
+        <v>45074</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
@@ -9862,7 +11890,7 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="1"/>
-        <v>45419</v>
+        <v>45075</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="2"/>
@@ -9883,7 +11911,7 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="1"/>
-        <v>45420</v>
+        <v>45076</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="2"/>
@@ -9904,7 +11932,7 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="1"/>
-        <v>45421</v>
+        <v>45077</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="2"/>
@@ -9925,7 +11953,7 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="1"/>
-        <v>45422</v>
+        <v>45078</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="2"/>
@@ -9946,7 +11974,7 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" si="1"/>
-        <v>45423</v>
+        <v>45079</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="2"/>
@@ -9967,7 +11995,7 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" si="1"/>
-        <v>45424</v>
+        <v>45080</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="2"/>
@@ -9988,7 +12016,7 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45081</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="2"/>
@@ -10009,7 +12037,7 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" si="1"/>
-        <v>45426</v>
+        <v>45082</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="2"/>
@@ -10030,7 +12058,7 @@
       </c>
       <c r="B15" s="8">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45083</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
@@ -10051,7 +12079,7 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45084</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="2"/>
@@ -10072,7 +12100,7 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45085</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="2"/>
@@ -10093,7 +12121,7 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45086</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="2"/>
@@ -10114,7 +12142,7 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
-        <v>45431</v>
+        <v>45087</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="2"/>
@@ -10135,7 +12163,7 @@
       </c>
       <c r="B20" s="8">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45088</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="2"/>
@@ -10156,7 +12184,7 @@
       </c>
       <c r="B21" s="8">
         <f t="shared" si="1"/>
-        <v>45433</v>
+        <v>45089</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="2"/>
@@ -10177,7 +12205,7 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45090</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="2"/>
@@ -10198,7 +12226,7 @@
       </c>
       <c r="B23" s="8">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45091</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="2"/>
@@ -10219,7 +12247,7 @@
       </c>
       <c r="B24" s="8">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45092</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="2"/>
@@ -10240,7 +12268,7 @@
       </c>
       <c r="B25" s="8">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45093</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="2"/>
@@ -10259,30 +12287,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -10298,28 +12326,28 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="22"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="10"/>
       <c r="L29" s="5"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="22"/>
       <c r="I30" s="7"/>
       <c r="J30" s="11"/>
@@ -10328,69 +12356,69 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="10"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="22"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="10"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="20"/>
       <c r="J33" s="25"/>
       <c r="K33" s="26"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="23"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="29"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
       <c r="J35" s="30"/>
@@ -10398,13 +12426,13 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
       <c r="J36" s="30"/>
@@ -10412,41 +12440,41 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="23"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="29"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="27"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="27"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="27"/>
       <c r="I39" s="28"/>
       <c r="J39" s="30"/>
@@ -10454,13 +12482,13 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="27"/>
       <c r="I40" s="28"/>
       <c r="J40" s="30"/>
@@ -10468,13 +12496,13 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="27"/>
       <c r="I41" s="28"/>
       <c r="J41" s="30"/>
@@ -10482,13 +12510,13 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="27"/>
       <c r="I42" s="28"/>
       <c r="J42" s="30"/>
@@ -10496,13 +12524,13 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="31"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -10510,13 +12538,13 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="27"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -10524,13 +12552,13 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="22"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -10538,13 +12566,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -10552,13 +12580,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -10566,13 +12594,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -10580,13 +12608,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -10594,13 +12622,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -10608,13 +12636,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -10622,13 +12650,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -10636,13 +12664,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -10650,13 +12678,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -10664,13 +12692,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -10678,13 +12706,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -10692,13 +12720,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -10706,13 +12734,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -10720,13 +12748,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -10734,13 +12762,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10748,13 +12776,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -10762,13 +12790,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -10776,13 +12804,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -10790,13 +12818,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -10804,13 +12832,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -10818,13 +12846,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -10832,13 +12860,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -14029,6 +16057,36 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
@@ -14040,4363 +16098,6 @@
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:N1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>45073</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <f ca="1">TODAY()</f>
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <f>B1</f>
-        <v>45073</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(J29:J1007)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D25" si="0">SUMIF($K$29:$K$1007,B5,$J$29:$J$1007)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <f>C5-D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" ref="B6:B25" si="1">B5+1</f>
-        <v>45074</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" ref="E6:E25" ca="1" si="3">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
-        <f t="shared" si="1"/>
-        <v>45075</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" si="1"/>
-        <v>45076</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" si="1"/>
-        <v>45077</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="1"/>
-        <v>45078</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="1"/>
-        <v>45079</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <f t="shared" si="1"/>
-        <v>45080</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <f t="shared" si="1"/>
-        <v>45081</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" si="1"/>
-        <v>45082</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <f t="shared" si="1"/>
-        <v>45083</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <f t="shared" si="1"/>
-        <v>45084</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <f t="shared" si="1"/>
-        <v>45085</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <f t="shared" si="1"/>
-        <v>45086</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <f t="shared" si="1"/>
-        <v>45087</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <f t="shared" si="1"/>
-        <v>45088</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" si="1"/>
-        <v>45089</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" si="1"/>
-        <v>45090</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <f t="shared" si="1"/>
-        <v>45091</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
-        <f t="shared" si="1"/>
-        <v>45092</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8">
-        <f t="shared" si="1"/>
-        <v>45093</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="5"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="5"/>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="5"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="5"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="5"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="5"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="5"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="5"/>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="5"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="5"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="5"/>
-    </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="5"/>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="5"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="5"/>
-    </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="5"/>
-    </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="5"/>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="5"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="5"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="5"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="5"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="5"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="5"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="5"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="5"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="5"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="5"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="5"/>
-    </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="5"/>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="5"/>
-    </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="5"/>
-    </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="5"/>
-    </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="5"/>
-    </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="5"/>
-    </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="5"/>
-    </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="8"/>
-      <c r="L173" s="5"/>
-    </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="5"/>
-    </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="5"/>
-    </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="5"/>
-    </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="5"/>
-    </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="5"/>
-    </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="8"/>
-      <c r="L179" s="5"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="5"/>
-    </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="5"/>
-    </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="5"/>
-    </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="5"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="5"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="5"/>
-    </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="5"/>
-    </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="5"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="5"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="5"/>
-    </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="5"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="5"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="5"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="5"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="5"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="5"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="5"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="5"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="5"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="5"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="5"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="7"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="5"/>
-    </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="5"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="5"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="7"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="5"/>
-    </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="5"/>
-    </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="7"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="5"/>
-    </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="5"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="7"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="5"/>
-    </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="7"/>
-      <c r="J209" s="7"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="5"/>
-    </row>
-    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="5"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="5"/>
-    </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="5"/>
-    </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="7"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="5"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="5"/>
-    </row>
-    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="7"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="5"/>
-    </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="7"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="7"/>
-      <c r="J216" s="7"/>
-      <c r="K216" s="8"/>
-      <c r="L216" s="5"/>
-    </row>
-    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="7"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="5"/>
-    </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="5"/>
-    </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="5"/>
-    </row>
-    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="7"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="7"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="5"/>
-    </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="7"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="7"/>
-      <c r="J221" s="7"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="5"/>
-    </row>
-    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="7"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="5"/>
-    </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="5"/>
-    </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="7"/>
-      <c r="J224" s="7"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="5"/>
-    </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="7"/>
-      <c r="J225" s="7"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="5"/>
-    </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="7"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="8"/>
-      <c r="L226" s="5"/>
-    </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="5"/>
-    </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="5"/>
-    </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="7"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="8"/>
-      <c r="L229" s="5"/>
-    </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="7"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="8"/>
-      <c r="L230" s="5"/>
-    </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="8"/>
-      <c r="L231" s="5"/>
-    </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="5"/>
-    </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="5"/>
-    </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="7"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="8"/>
-      <c r="L234" s="5"/>
-    </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="7"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="8"/>
-      <c r="L235" s="5"/>
-    </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="5"/>
-    </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="7"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="5"/>
-    </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="7"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="8"/>
-      <c r="L238" s="5"/>
-    </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="8"/>
-      <c r="L239" s="5"/>
-    </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="7"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="8"/>
-      <c r="L240" s="5"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">

--- a/Docs/docs_tecnicos/Burndown codenine.xlsx
+++ b/Docs/docs_tecnicos/Burndown codenine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaci\OneDrive\Área de Trabalho\portfolio_digital_dsm\API-2024.1\Docs\docs_tecnicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239B11EC-B29C-4553-89BC-021B95CDCB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E04A3C-C7AC-42B4-AD2A-8C6327C3DD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$A$1:$M$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Sprint 3'!$A$1:$M$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint 4'!$A$1:$M$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Data de início:</t>
   </si>
@@ -274,6 +275,36 @@
   </si>
   <si>
     <t>Júlia, Joyce, Yuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação do dashboard </t>
+  </si>
+  <si>
+    <t>Jonas, Pedro e Renato</t>
+  </si>
+  <si>
+    <t>Sistema de análise dos dados</t>
+  </si>
+  <si>
+    <t>Jonas, Joyce e Renato</t>
+  </si>
+  <si>
+    <t>Sistema de busca de atendentes disponíveis</t>
+  </si>
+  <si>
+    <t>Júlia e Joyce</t>
+  </si>
+  <si>
+    <t>Funcionalidade de atribuição de chamados</t>
+  </si>
+  <si>
+    <t>Davi, Eduardo, Pedro e Yuri</t>
+  </si>
+  <si>
+    <t>Correção de erros no backend</t>
+  </si>
+  <si>
+    <t>Correção de estilos</t>
   </si>
 </sst>
 </file>
@@ -507,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -542,7 +573,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -572,12 +602,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,20 +617,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2129,7 +2159,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,67 +2495,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>48.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>35.700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33.15000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>30.600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>28.050000000000018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>25.500000000000018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>22.950000000000017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>20.400000000000016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>17.850000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>15.300000000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>12.750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.6500000000000137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.1000000000000139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.550000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.4210854715202004E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,55 +2659,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2887,7 +2917,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3260,7 +3290,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45437</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,30 +3766,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -3800,15 +3830,15 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="10">
         <v>45376</v>
       </c>
@@ -3825,15 +3855,15 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="13">
         <v>45381</v>
       </c>
@@ -3849,15 +3879,15 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="10">
         <v>45384</v>
       </c>
@@ -3873,15 +3903,15 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="10">
         <v>45378</v>
       </c>
@@ -3897,15 +3927,15 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="14">
         <v>45385</v>
       </c>
@@ -3921,15 +3951,15 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="14">
         <v>45388</v>
       </c>
@@ -3945,15 +3975,15 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="14">
         <v>45388</v>
       </c>
@@ -5342,16 +5372,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
@@ -5392,7 +5422,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45437</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5868,30 +5898,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -5932,15 +5962,15 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="10">
         <v>45398</v>
       </c>
@@ -5957,15 +5987,15 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="13">
         <v>45405</v>
       </c>
@@ -5981,15 +6011,15 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="10">
         <v>45406</v>
       </c>
@@ -6005,15 +6035,15 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="10">
         <v>45401</v>
       </c>
@@ -6029,15 +6059,15 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="14">
         <v>45402</v>
       </c>
@@ -6053,15 +6083,15 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="14">
         <v>45402</v>
       </c>
@@ -6077,15 +6107,15 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="14">
         <v>45402</v>
       </c>
@@ -6101,15 +6131,15 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8">
         <v>45399</v>
       </c>
@@ -6125,15 +6155,15 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="8">
         <v>45410</v>
       </c>
@@ -6149,19 +6179,19 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="8">
         <v>45411</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="J39" s="7">
@@ -6173,19 +6203,19 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="8">
         <v>45411</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="33" t="s">
         <v>47</v>
       </c>
       <c r="J40" s="7">
@@ -6197,22 +6227,22 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="19">
         <v>45407</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="20">
         <v>8</v>
       </c>
       <c r="K41" s="19">
@@ -6221,19 +6251,19 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="8">
         <v>45398</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="33" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="7">
@@ -6245,19 +6275,19 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="8">
         <v>45397</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="33" t="s">
         <v>27</v>
       </c>
       <c r="J43" s="7">
@@ -6269,19 +6299,19 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="8">
         <v>45415</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="33" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="7">
@@ -6293,13 +6323,13 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="8"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -6307,13 +6337,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -6321,13 +6351,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="8"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6335,13 +6365,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="8"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -6349,13 +6379,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="8"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -6363,13 +6393,13 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -6377,13 +6407,13 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="8"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -6391,13 +6421,13 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="8"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -6405,13 +6435,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
       <c r="H53" s="8"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -6419,13 +6449,13 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="8"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -6433,13 +6463,13 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="8"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -6447,13 +6477,13 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="8"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -6461,13 +6491,13 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
       <c r="H57" s="8"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -6475,13 +6505,13 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
       <c r="H58" s="8"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -6489,13 +6519,13 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
       <c r="H59" s="8"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -6503,13 +6533,13 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -6517,13 +6547,13 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -6531,13 +6561,13 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -6545,13 +6575,13 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -6559,13 +6589,13 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -6573,13 +6603,13 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -6587,13 +6617,13 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -6601,13 +6631,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -9798,36 +9828,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
@@ -9839,6 +9839,36 @@
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
@@ -9858,8 +9888,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9879,7 +9909,7 @@
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45437</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10287,7 +10317,7 @@
         <f t="shared" ca="1" si="3"/>
         <v>34</v>
       </c>
-      <c r="S22" s="59"/>
+      <c r="S22" s="39"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -10349,38 +10379,38 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
-      <c r="L26" s="59"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -10405,13 +10435,13 @@
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <v>45421</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>20</v>
       </c>
       <c r="K29" s="10">
@@ -10421,19 +10451,19 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="22">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="21">
         <v>45429</v>
       </c>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="35" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="11">
@@ -10446,19 +10476,19 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="22">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="21">
         <v>45424</v>
       </c>
-      <c r="I31" s="54" t="s">
+      <c r="I31" s="35" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="11">
@@ -10470,22 +10500,22 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="22">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="21">
         <v>45424</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>4</v>
       </c>
       <c r="K32" s="10">
@@ -10494,25 +10524,25 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="24">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="23">
         <v>45429</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="24">
         <v>9</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="25">
         <v>45435</v>
       </c>
       <c r="L33" s="5"/>
@@ -10521,22 +10551,22 @@
       <c r="A34" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="27">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="26">
         <v>45432</v>
       </c>
-      <c r="I34" s="57" t="s">
+      <c r="I34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>6</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="28">
         <v>45433</v>
       </c>
       <c r="L34" s="5"/>
@@ -10545,22 +10575,22 @@
       <c r="A35" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="27">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="26">
         <v>45433</v>
       </c>
-      <c r="I35" s="57" t="s">
+      <c r="I35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>4</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="28">
         <v>45434</v>
       </c>
       <c r="L35" s="5"/>
@@ -10569,22 +10599,22 @@
       <c r="A36" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="27">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="26">
         <v>45421</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <v>15</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="28">
         <v>45426</v>
       </c>
       <c r="L36" s="5"/>
@@ -10593,22 +10623,22 @@
       <c r="A37" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="27">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="26">
         <v>45435</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>6</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="28">
         <v>45406</v>
       </c>
       <c r="L37" s="5"/>
@@ -10617,22 +10647,22 @@
       <c r="A38" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="27">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="26">
         <v>45430</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>7</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <v>45432</v>
       </c>
       <c r="L38" s="5"/>
@@ -10641,22 +10671,22 @@
       <c r="A39" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="27">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="26">
         <v>45432</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>10</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="28">
         <v>45435</v>
       </c>
       <c r="L39" s="5"/>
@@ -10665,22 +10695,22 @@
       <c r="A40" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="27">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="26">
         <v>45430</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>10</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="28">
         <v>45436</v>
       </c>
       <c r="L40" s="5"/>
@@ -10689,22 +10719,22 @@
       <c r="A41" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="27">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="26">
         <v>45430</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>6</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="28">
         <v>45436</v>
       </c>
       <c r="L41" s="5"/>
@@ -10713,22 +10743,22 @@
       <c r="A42" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="27">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="26">
         <v>45432</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>5</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="28">
         <v>45435</v>
       </c>
       <c r="L42" s="5"/>
@@ -10737,22 +10767,22 @@
       <c r="A43" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="31">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="30">
         <v>45432</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="27">
         <v>2</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="28">
         <v>45435</v>
       </c>
       <c r="L43" s="5"/>
@@ -10761,35 +10791,35 @@
       <c r="A44" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="27">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="26">
         <v>45435</v>
       </c>
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="27">
         <v>12</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="31">
         <v>45437</v>
       </c>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="21"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
@@ -11752,25 +11782,25 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -11790,8 +11820,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="A1:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11804,14 +11834,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45073</v>
+        <v>45439</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45437</v>
+        <v>45458</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11847,12 +11877,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <f>B1</f>
-        <v>45073</v>
+        <v>45439</v>
       </c>
       <c r="C5" s="7">
         <f>SUM(J29:J1007)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D25" si="0">SUMIF($K$29:$K$1007,B5,$J$29:$J$1007)</f>
@@ -11860,7 +11889,7 @@
       </c>
       <c r="E5" s="7">
         <f>C5-D5</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11869,11 +11898,11 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ref="B6:B25" si="1">B5+1</f>
-        <v>45074</v>
+        <v>45440</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:C25" si="2">C5-$C$5/($B$2-1)</f>
-        <v>0</v>
+        <v>48.45</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -11881,7 +11910,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:E25" ca="1" si="3">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11890,11 +11919,11 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="1"/>
-        <v>45075</v>
+        <v>45441</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45.900000000000006</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -11902,7 +11931,7 @@
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11911,11 +11940,11 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="1"/>
-        <v>45076</v>
+        <v>45442</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43.350000000000009</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -11923,7 +11952,7 @@
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11932,11 +11961,11 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="1"/>
-        <v>45077</v>
+        <v>45443</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40.800000000000011</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -11944,7 +11973,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11953,11 +11982,11 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="1"/>
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38.250000000000014</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -11965,7 +11994,7 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11974,11 +12003,11 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" si="1"/>
-        <v>45079</v>
+        <v>45445</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35.700000000000017</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -11986,7 +12015,7 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,11 +12024,11 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" si="1"/>
-        <v>45080</v>
+        <v>45446</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.15000000000002</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -12007,7 +12036,7 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12016,11 +12045,11 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" si="1"/>
-        <v>45081</v>
+        <v>45447</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.600000000000019</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -12028,7 +12057,7 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12037,19 +12066,19 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" si="1"/>
-        <v>45082</v>
+        <v>45448</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.050000000000018</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12058,11 +12087,11 @@
       </c>
       <c r="B15" s="8">
         <f t="shared" si="1"/>
-        <v>45083</v>
+        <v>45449</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.500000000000018</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -12070,7 +12099,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12079,19 +12108,19 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45450</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.950000000000017</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12100,11 +12129,11 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45451</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.400000000000016</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -12112,7 +12141,7 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12121,11 +12150,11 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45452</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.850000000000016</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -12133,7 +12162,7 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12142,11 +12171,11 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
-        <v>45087</v>
+        <v>45453</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.300000000000015</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -12154,7 +12183,7 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12163,19 +12192,19 @@
       </c>
       <c r="B20" s="8">
         <f t="shared" si="1"/>
-        <v>45088</v>
+        <v>45454</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.750000000000014</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12184,11 +12213,11 @@
       </c>
       <c r="B21" s="8">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45455</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.200000000000014</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -12196,7 +12225,7 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12205,15 +12234,15 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>45456</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6500000000000137</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -12226,11 +12255,11 @@
       </c>
       <c r="B23" s="8">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>45457</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.1000000000000139</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="0"/>
@@ -12247,11 +12276,11 @@
       </c>
       <c r="B24" s="8">
         <f t="shared" si="1"/>
-        <v>45092</v>
+        <v>45458</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.550000000000014</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="0"/>
@@ -12268,11 +12297,11 @@
       </c>
       <c r="B25" s="8">
         <f t="shared" si="1"/>
-        <v>45093</v>
+        <v>45459</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="0"/>
@@ -12287,30 +12316,30 @@
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
@@ -12326,2975 +12355,370 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="10"/>
+      <c r="H29" s="21">
+        <v>45447</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="16">
+        <v>10</v>
+      </c>
+      <c r="K29" s="10">
+        <v>45456</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
+      <c r="A30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="21">
+        <v>45447</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="11">
+        <v>10</v>
+      </c>
+      <c r="K30" s="10">
+        <v>45454</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="10"/>
+      <c r="A31" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="21">
+        <v>45472</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="18">
+        <v>9</v>
+      </c>
+      <c r="K31" s="10">
+        <v>45448</v>
+      </c>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
+      <c r="A32" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="21">
+        <v>45446</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="11">
+        <v>4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>45450</v>
+      </c>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="21">
+        <v>45448</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="24">
+        <v>9</v>
+      </c>
+      <c r="K33" s="25">
+        <v>45456</v>
+      </c>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="29"/>
+      <c r="A34" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="26">
+        <v>45448</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="29">
+        <v>9</v>
+      </c>
+      <c r="K34" s="28">
+        <v>45454</v>
+      </c>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="29"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="5"/>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="5"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="5"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="5"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="5"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="5"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="5"/>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="5"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="5"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="5"/>
-    </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="5"/>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="5"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="5"/>
-    </row>
-    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="5"/>
-    </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="5"/>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="5"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="5"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="5"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="5"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="5"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="5"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="5"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="5"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="5"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="5"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="5"/>
-    </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="5"/>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="5"/>
-    </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="5"/>
-    </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="5"/>
-    </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="5"/>
-    </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="5"/>
-    </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="5"/>
-    </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="8"/>
-      <c r="L173" s="5"/>
-    </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="5"/>
-    </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="5"/>
-    </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="5"/>
-    </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="5"/>
-    </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="5"/>
-    </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="8"/>
-      <c r="L179" s="5"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="5"/>
-    </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="5"/>
-    </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="5"/>
-    </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="5"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="5"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="5"/>
-    </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="5"/>
-    </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="5"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="5"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="5"/>
-    </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="5"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="5"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="5"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="5"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="5"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="5"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="5"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="5"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="5"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="5"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="5"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="7"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="5"/>
-    </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="5"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="5"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="7"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="5"/>
-    </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="5"/>
-    </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="7"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="5"/>
-    </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="5"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="7"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="5"/>
-    </row>
-    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="7"/>
-      <c r="J209" s="7"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="5"/>
-    </row>
-    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="5"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="5"/>
-    </row>
-    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="5"/>
-    </row>
-    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="7"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="5"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="5"/>
-    </row>
-    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="7"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="5"/>
-    </row>
-    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="7"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="7"/>
-      <c r="J216" s="7"/>
-      <c r="K216" s="8"/>
-      <c r="L216" s="5"/>
-    </row>
-    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="7"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="5"/>
-    </row>
-    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="5"/>
-    </row>
-    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="7"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="5"/>
-    </row>
-    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="7"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="7"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="5"/>
-    </row>
-    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="7"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="7"/>
-      <c r="J221" s="7"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="5"/>
-    </row>
-    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="7"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="5"/>
-    </row>
-    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="5"/>
-    </row>
-    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="7"/>
-      <c r="J224" s="7"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="5"/>
-    </row>
-    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="7"/>
-      <c r="J225" s="7"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="5"/>
-    </row>
-    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="7"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="8"/>
-      <c r="L226" s="5"/>
-    </row>
-    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="5"/>
-    </row>
-    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="5"/>
-    </row>
-    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="7"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="8"/>
-      <c r="L229" s="5"/>
-    </row>
-    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="7"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="8"/>
-      <c r="L230" s="5"/>
-    </row>
-    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="8"/>
-      <c r="L231" s="5"/>
-    </row>
-    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="5"/>
-    </row>
-    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="5"/>
-    </row>
-    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="7"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="8"/>
-      <c r="L234" s="5"/>
-    </row>
-    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="7"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="8"/>
-      <c r="L235" s="5"/>
-    </row>
-    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="5"/>
-    </row>
-    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="7"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="5"/>
-    </row>
-    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="7"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="8"/>
-      <c r="L238" s="5"/>
-    </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="8"/>
-      <c r="L239" s="5"/>
-    </row>
-    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="7"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="8"/>
-      <c r="L240" s="5"/>
-    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16056,48 +13480,16 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="9">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:G61"/>
   </mergeCells>
   <conditionalFormatting sqref="J29:J30 I29:I1000 J32:J1000">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -16105,7 +13497,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>